--- a/5 сем матстат/записи/Matstat/ДЗ/ДЗ 2.xlsx
+++ b/5 сем матстат/записи/Matstat/ДЗ/ДЗ 2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>19.13</t>
   </si>
@@ -76,6 +76,24 @@
   <si>
     <t>19.19</t>
   </si>
+  <si>
+    <t>x=</t>
+  </si>
+  <si>
+    <t>y=</t>
+  </si>
+  <si>
+    <t>Коррел:</t>
+  </si>
+  <si>
+    <t>19.63</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
 </sst>
 </file>
 
@@ -85,7 +103,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0000\ _₽_-;\-* #,##0.0000\ _₽_-;_-* &quot;-&quot;????\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +128,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -223,14 +250,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -241,10 +265,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,6 +281,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -434,11 +471,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="544814688"/>
-        <c:axId val="544819040"/>
+        <c:axId val="-1756413088"/>
+        <c:axId val="-1756419072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="544814688"/>
+        <c:axId val="-1756413088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -481,7 +518,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544819040"/>
+        <c:crossAx val="-1756419072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -489,7 +526,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="544819040"/>
+        <c:axId val="-1756419072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,9 +577,1072 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="544814688"/>
+        <c:crossAx val="-1756413088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Корреляция</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$67:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$68:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-1756410912"/>
+        <c:axId val="-1756409824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1756410912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1756409824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1756409824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1756410912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$M$68:$M$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$N$68:$N$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1710545536"/>
+        <c:axId val="-1710547168"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1710545536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1710547168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1710547168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1710545536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32890266841644794"/>
+          <c:y val="1.3888888888888888E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$L$68:$L$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$M$68:$M$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1710550432"/>
+        <c:axId val="-1710555328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1710550432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1710555328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1710555328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1710550432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -629,6 +1729,123 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1113,6 +2330,1554 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1159,6 +3924,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>265043</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>73715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>472108</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>149915</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>170524</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>155811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>444338</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>41511</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1430,10 +4285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:AB97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC50" sqref="AC50"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X78" sqref="X78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,24 +4296,24 @@
     <col min="2" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="H1" s="15" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
@@ -1470,8 +4325,12 @@
       <c r="W1" s="18"/>
       <c r="X1" s="18"/>
       <c r="Y1" s="19"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AB1">
+        <f>_xlfn.BINOM.INV(10,0.5,0.2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1484,1518 +4343,2319 @@
       <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="9" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9" t="s">
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="8">
         <v>1</v>
       </c>
-      <c r="Y2" s="10"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y2" s="9"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0.2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f t="shared" ref="B3:D11" si="0">(-1/B$2)*LN(1-$A3)</f>
         <v>0.22314355131420971</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f t="shared" si="0"/>
         <v>0.11157177565710485</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>7.4381183771403236E-2</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>0.2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <f>$O$4-SQRT(2*$O$5^2*LN($O$5*SQRT(2*PI())*H3))</f>
         <v>20.289643497637943</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <f>(I3*30*24/4)/365</f>
         <v>10.005851587876245</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="9">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="8">
         <v>0.2</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="8">
         <f>$X$2*SQRT(-2*LN(R3))*COS(2*PI()*R4)</f>
         <v>-1.4514756555890198</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="8">
         <f>$X$3*SQRT(-2*LN(R3))*SIN(2*PI()*R4)</f>
         <v>-3.1636763764496569</v>
       </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9" t="s">
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="9">
+      <c r="X3" s="8">
         <v>3</v>
       </c>
-      <c r="Y3" s="10"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Y3" s="9"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f>MOD(A3*13,1)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <f t="shared" si="0"/>
         <v>0.91629073187415533</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>0.45814536593707766</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>0.30543024395805174</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <f>MOD(H3*13,1)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <f t="shared" ref="I4:I17" si="1">$O$4-SQRT(2*$O$5^2*LN($O$5*SQRT(2*PI())*H4))</f>
         <v>17.792212219577081</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <f t="shared" ref="J4:J17" si="2">(I4*30*24/4)/365</f>
         <v>8.7742416425311625</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="8">
         <v>23</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="9">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="8">
         <f>MOD(R3*13,1)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="S4" s="9">
-        <f t="shared" ref="S4:S54" si="3">$X$2*SQRT(-2*LN(R4))*COS(2*PI()*R5)</f>
+      <c r="S4" s="8">
+        <f t="shared" ref="S4:S52" si="3">$X$2*SQRT(-2*LN(R4))*COS(2*PI()*R5)</f>
         <v>0.31234438201626696</v>
       </c>
-      <c r="T4" s="9">
-        <f t="shared" ref="T4:T52" si="4">$X$3*SQRT(-2*LN(R4))*SIN(2*PI()*R5)</f>
+      <c r="T4" s="8">
+        <f t="shared" ref="T4:T51" si="4">$X$3*SQRT(-2*LN(R4))*SIN(2*PI()*R5)</f>
         <v>-2.8838914873818879</v>
       </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="10"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="9"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f>MOD(A4*13,1)</f>
         <v>0.80000000000000071</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <f t="shared" si="0"/>
         <v>1.6094379124341038</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>0.80471895621705192</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>0.53647930414470124</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f t="shared" ref="H5:H17" si="5">MOD(H4*13,1)</f>
         <v>0.80000000000000071</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <f t="shared" si="1"/>
         <v>17.316749972942038</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <f t="shared" si="2"/>
         <v>8.5397671099440196</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9" t="s">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="8">
         <v>3</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="9">
+      <c r="P5" s="8"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="8">
         <f t="shared" ref="R5:R52" si="6">MOD(R4*13,1)</f>
         <v>0.80000000000000071</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="8">
         <f t="shared" si="3"/>
         <v>-0.54046156279193636</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="8">
         <f t="shared" si="4"/>
         <v>1.1780049303616009</v>
       </c>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="10"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="9"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>MOD(A5*13,1)</f>
         <v>0.40000000000000924</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <f t="shared" si="0"/>
         <v>0.51082562376600604</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>0.25541281188300302</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>0.17027520792200201</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f t="shared" si="5"/>
         <v>0.40000000000000924</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <f t="shared" si="1"/>
         <v>18.54773297970846</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <f t="shared" si="2"/>
         <v>9.1468272228699234</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="9">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="8">
         <f t="shared" si="6"/>
         <v>0.40000000000000924</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="8">
         <f t="shared" si="3"/>
         <v>0.41832518212377351</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="8">
         <f t="shared" si="4"/>
         <v>3.8624175786344468</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="10"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="9"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" ref="A7:A12" si="7">MOD(A6*13,1)</f>
         <v>0.20000000000012008</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <f t="shared" si="0"/>
         <v>0.22314355131435987</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>0.11157177565717993</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>7.438118377145328E-2</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <f t="shared" si="5"/>
         <v>0.20000000000012008</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <f t="shared" si="1"/>
         <v>20.28964349763595</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <f t="shared" si="2"/>
         <v>10.005851587875263</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="9">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="8">
         <f t="shared" si="6"/>
         <v>0.20000000000012008</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="8">
         <f t="shared" si="3"/>
         <v>-1.4514756555784059</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="8">
         <f t="shared" si="4"/>
         <v>-3.1636763764917761</v>
       </c>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="10"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="9"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="7"/>
         <v>0.60000000000156106</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <f t="shared" si="0"/>
         <v>0.91629073187805776</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>0.45814536593902888</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>0.30543024395935259</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <f t="shared" si="5"/>
         <v>0.60000000000156106</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <f t="shared" si="1"/>
         <v>17.792212219572587</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <f t="shared" si="2"/>
         <v>8.7742416425289456</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="8">
         <v>4</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="9">
+      <c r="P8" s="8"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="8">
         <f t="shared" si="6"/>
         <v>0.60000000000156106</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="8">
         <f t="shared" si="3"/>
         <v>0.31234438213804189</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="8">
         <f t="shared" si="4"/>
         <v>-2.8838914872550676</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="10"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="7"/>
         <v>0.80000000002029381</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <f t="shared" si="0"/>
         <v>1.6094379125355693</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>0.80471895626778467</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <f t="shared" si="0"/>
         <v>0.53647930417852308</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f t="shared" si="5"/>
         <v>0.80000000002029381</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="8">
         <f t="shared" si="1"/>
         <v>17.316749972901867</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="8">
         <f t="shared" si="2"/>
         <v>8.5397671099242096</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <v>15</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="9">
+      <c r="P9" s="8"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="8">
         <f t="shared" si="6"/>
         <v>0.80000000002029381</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="8">
         <f t="shared" si="3"/>
         <v>-0.54046156341209206</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="8">
         <f t="shared" si="4"/>
         <v>1.1780049276070881</v>
       </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="10"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="9"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="7"/>
         <v>0.40000000026381954</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <f t="shared" si="0"/>
         <v>0.51082562420568989</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>0.25541281210284494</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <f t="shared" si="0"/>
         <v>0.17027520806856328</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f t="shared" si="5"/>
         <v>0.40000000026381954</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <f t="shared" si="1"/>
         <v>18.547732978375265</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <f t="shared" si="2"/>
         <v>9.1468272222124583</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9" t="s">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="10">
         <f>O8/O9</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="9">
+      <c r="P10" s="8"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="8">
         <f t="shared" si="6"/>
         <v>0.40000000026381954</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="8">
         <f t="shared" si="3"/>
         <v>0.41832515423025296</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="8">
         <f t="shared" si="4"/>
         <v>3.8624176042871157</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="10"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="9"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="7"/>
         <v>0.20000000342965407</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <f t="shared" si="0"/>
         <v>0.22314355560127735</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>0.11157177780063868</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>7.4381185200425776E-2</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f t="shared" si="5"/>
         <v>0.20000000342965407</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <f t="shared" si="1"/>
         <v>20.28964344069546</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="8">
         <f t="shared" si="2"/>
         <v>10.005851559795023</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="9">
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="8">
         <f t="shared" si="6"/>
         <v>0.20000000342965407</v>
       </c>
-      <c r="S11" s="9">
+      <c r="S11" s="8">
         <f t="shared" si="3"/>
         <v>-1.4514753524333384</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="8">
         <f t="shared" si="4"/>
         <v>-3.1636775794400398</v>
       </c>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="10"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="9"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="7"/>
         <v>0.60000004458550293</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <f>(-1/B$2)*LN(1-$A12)</f>
         <v>0.91629084333791866</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <f t="shared" ref="C12:D12" si="8">(-1/C$2)*LN(1-$A12)</f>
         <v>0.45814542166895933</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <f t="shared" si="8"/>
         <v>0.30543028111263953</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <f t="shared" si="5"/>
         <v>0.60000004458550293</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <f t="shared" si="1"/>
         <v>17.792212091157388</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <f t="shared" si="2"/>
         <v>8.7742415792009041</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="9">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="8">
         <f t="shared" si="6"/>
         <v>0.60000004458550293</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="8">
         <f t="shared" si="3"/>
         <v>0.31234786015420896</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="8">
         <f t="shared" si="4"/>
         <v>-2.8838878651113626</v>
       </c>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="10"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H13" s="8">
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="9"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H13" s="7">
         <f t="shared" si="5"/>
         <v>0.80000057961153814</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <f t="shared" si="1"/>
         <v>17.316748825600861</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <f t="shared" si="2"/>
         <v>8.5397665441319308</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="9">
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="8">
         <f t="shared" si="6"/>
         <v>0.80000057961153814</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="8">
         <f t="shared" si="3"/>
         <v>-0.54047927504295312</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="8">
         <f t="shared" si="4"/>
         <v>1.1779262547554863</v>
       </c>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="10"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H14" s="8">
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="9"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H14" s="7">
         <f t="shared" si="5"/>
         <v>0.40000753494999586</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <f t="shared" si="1"/>
         <v>18.547694901567109</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <f t="shared" si="2"/>
         <v>9.1468084446084372</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="9">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="8">
         <f t="shared" si="6"/>
         <v>0.40000753494999586</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="8">
         <f t="shared" si="3"/>
         <v>0.41752841637636517</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="8">
         <f t="shared" si="4"/>
         <v>3.8631495308676258</v>
       </c>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="10"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H15" s="8">
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="9"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H15" s="7">
         <f t="shared" si="5"/>
         <v>0.20009795434994615</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <f t="shared" si="1"/>
         <v>20.288018048878499</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <f t="shared" si="2"/>
         <v>10.005049996707205</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="9">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="8">
         <f t="shared" si="6"/>
         <v>0.20009795434994615</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="8">
         <f t="shared" si="3"/>
         <v>-1.4427721865371606</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="8">
         <f t="shared" si="4"/>
         <v>-3.1979281496453811</v>
       </c>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="10"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="H16" s="8">
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="9"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H16" s="7">
         <f t="shared" si="5"/>
         <v>0.60127340654929995</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <f t="shared" si="1"/>
         <v>17.788549599145863</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <f t="shared" si="2"/>
         <v>8.7724354187568636</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="9">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="8">
         <f t="shared" si="6"/>
         <v>0.60127340654929995</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="8">
         <f t="shared" si="3"/>
         <v>0.40961145989695136</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="8">
         <f t="shared" si="4"/>
         <v>-2.7652604905211273</v>
       </c>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="10"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="9"/>
     </row>
     <row r="17" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <f t="shared" si="5"/>
         <v>0.81655428514089934</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="8">
         <f t="shared" si="1"/>
         <v>17.284407214584711</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <f t="shared" si="2"/>
         <v>8.5238172565075292</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="9">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="8">
         <f t="shared" si="6"/>
         <v>0.81655428514089934</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="8">
         <f t="shared" si="3"/>
         <v>-0.47701396296571158</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="8">
         <f t="shared" si="4"/>
         <v>-1.2649241152102806</v>
       </c>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="10"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="9"/>
     </row>
     <row r="18" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="H18" s="12"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="9">
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="8">
         <f t="shared" si="6"/>
         <v>0.6152057068316914</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="8">
         <f t="shared" si="3"/>
         <v>0.98559103829065831</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="8">
         <f t="shared" si="4"/>
         <v>-4.3211887923806744E-2</v>
       </c>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="10"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="9"/>
     </row>
     <row r="19" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q19" s="16"/>
-      <c r="R19" s="9">
+      <c r="Q19" s="14"/>
+      <c r="R19" s="8">
         <f t="shared" si="6"/>
         <v>0.99767418881198822</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="8">
         <f t="shared" si="3"/>
         <v>6.7014749160556775E-2</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="8">
         <f t="shared" si="4"/>
         <v>-3.8659696548602525E-2</v>
       </c>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="10"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q20" s="16"/>
-      <c r="R20" s="9">
+      <c r="Q20" s="14"/>
+      <c r="R20" s="8">
         <f t="shared" si="6"/>
         <v>0.96976445455584681</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="8">
         <f t="shared" si="3"/>
         <v>-0.19393552143256002</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="8">
         <f t="shared" si="4"/>
         <v>-0.46275083320982902</v>
       </c>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="10"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="9"/>
     </row>
     <row r="21" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q21" s="16"/>
-      <c r="R21" s="9">
+      <c r="Q21" s="14"/>
+      <c r="R21" s="8">
         <f t="shared" si="6"/>
         <v>0.60693790922600854</v>
       </c>
-      <c r="S21" s="9">
+      <c r="S21" s="8">
         <f t="shared" si="3"/>
         <v>0.7707670588388188</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="8">
         <f t="shared" si="4"/>
         <v>-1.9081879854795059</v>
       </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="10"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="9"/>
     </row>
     <row r="22" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q22" s="16"/>
-      <c r="R22" s="9">
+      <c r="Q22" s="14"/>
+      <c r="R22" s="8">
         <f t="shared" si="6"/>
         <v>0.89019281993811106</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="8">
         <f t="shared" si="3"/>
         <v>-0.43312945157125105</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="8">
         <f t="shared" si="4"/>
         <v>-0.6366312037092744</v>
       </c>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="10"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="9"/>
     </row>
     <row r="23" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q23" s="16"/>
-      <c r="R23" s="9">
+      <c r="Q23" s="14"/>
+      <c r="R23" s="8">
         <f t="shared" si="6"/>
         <v>0.57250665919544375</v>
       </c>
-      <c r="S23" s="9">
+      <c r="S23" s="8">
         <f t="shared" si="3"/>
         <v>-0.98817611623723878</v>
       </c>
-      <c r="T23" s="9">
+      <c r="T23" s="8">
         <f t="shared" si="4"/>
         <v>1.1183595498701662</v>
       </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="10"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="9"/>
     </row>
     <row r="24" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q24" s="16"/>
-      <c r="R24" s="9">
+      <c r="Q24" s="14"/>
+      <c r="R24" s="8">
         <f t="shared" si="6"/>
         <v>0.44258656954076869</v>
       </c>
-      <c r="S24" s="9">
+      <c r="S24" s="8">
         <f t="shared" si="3"/>
         <v>2.9082000726062346E-2</v>
       </c>
-      <c r="T24" s="9">
+      <c r="T24" s="8">
         <f t="shared" si="4"/>
         <v>-3.8294299403820911</v>
       </c>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="10"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="9"/>
     </row>
     <row r="25" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q25" s="16"/>
-      <c r="R25" s="9">
+      <c r="Q25" s="14"/>
+      <c r="R25" s="8">
         <f t="shared" si="6"/>
         <v>0.75362540402999301</v>
       </c>
-      <c r="S25" s="9">
+      <c r="S25" s="8">
         <f t="shared" si="3"/>
         <v>0.21948976628212338</v>
       </c>
-      <c r="T25" s="9">
+      <c r="T25" s="8">
         <f t="shared" si="4"/>
         <v>-2.158215793545164</v>
       </c>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="10"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="9"/>
     </row>
     <row r="26" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q26" s="16"/>
-      <c r="R26" s="9">
+      <c r="Q26" s="14"/>
+      <c r="R26" s="8">
         <f t="shared" si="6"/>
         <v>0.79713025238990909</v>
       </c>
-      <c r="S26" s="9">
+      <c r="S26" s="8">
         <f t="shared" si="3"/>
         <v>-0.43796313494836603</v>
       </c>
-      <c r="T26" s="9">
+      <c r="T26" s="8">
         <f t="shared" si="4"/>
         <v>1.5345891845889772</v>
       </c>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="10"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="9"/>
     </row>
     <row r="27" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q27" s="16"/>
-      <c r="R27" s="9">
+      <c r="Q27" s="14"/>
+      <c r="R27" s="8">
         <f t="shared" si="6"/>
         <v>0.36269328106881815</v>
       </c>
-      <c r="S27" s="9">
+      <c r="S27" s="8">
         <f t="shared" si="3"/>
         <v>-0.31057291519919</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T27" s="8">
         <f t="shared" si="4"/>
         <v>-4.1698273125377616</v>
       </c>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="10"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="9"/>
     </row>
     <row r="28" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q28" s="16"/>
-      <c r="R28" s="9">
+      <c r="Q28" s="14"/>
+      <c r="R28" s="8">
         <f t="shared" si="6"/>
         <v>0.71501265389463597</v>
       </c>
-      <c r="S28" s="9">
+      <c r="S28" s="8">
         <f t="shared" si="3"/>
         <v>-0.22933197083873053</v>
       </c>
-      <c r="T28" s="9">
+      <c r="T28" s="8">
         <f t="shared" si="4"/>
         <v>2.3589939213107276</v>
       </c>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="10"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="9"/>
     </row>
     <row r="29" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q29" s="16"/>
-      <c r="R29" s="9">
+      <c r="Q29" s="14"/>
+      <c r="R29" s="8">
         <f t="shared" si="6"/>
         <v>0.29516450063026767</v>
       </c>
-      <c r="S29" s="9">
+      <c r="S29" s="8">
         <f t="shared" si="3"/>
         <v>0.81321578017253249</v>
       </c>
-      <c r="T29" s="9">
+      <c r="T29" s="8">
         <f t="shared" si="4"/>
         <v>-4.0015153295205632</v>
       </c>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="10"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="9"/>
     </row>
     <row r="30" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q30" s="16"/>
-      <c r="R30" s="9">
+      <c r="Q30" s="14"/>
+      <c r="R30" s="8">
         <f t="shared" si="6"/>
         <v>0.83713850819347968</v>
       </c>
-      <c r="S30" s="9">
+      <c r="S30" s="8">
         <f t="shared" si="3"/>
         <v>0.44177300646290346</v>
       </c>
-      <c r="T30" s="9">
+      <c r="T30" s="8">
         <f t="shared" si="4"/>
         <v>-1.2013795508986853</v>
       </c>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="10"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="9"/>
     </row>
     <row r="31" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q31" s="16"/>
-      <c r="R31" s="9">
+      <c r="Q31" s="14"/>
+      <c r="R31" s="8">
         <f t="shared" si="6"/>
         <v>0.88280060651523584</v>
       </c>
-      <c r="S31" s="9">
+      <c r="S31" s="8">
         <f t="shared" si="3"/>
         <v>-0.49383566186104194</v>
       </c>
-      <c r="T31" s="9">
+      <c r="T31" s="8">
         <f t="shared" si="4"/>
         <v>0.22123193218793452</v>
       </c>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="10"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="9"/>
     </row>
     <row r="32" spans="8:25" x14ac:dyDescent="0.25">
-      <c r="Q32" s="16"/>
-      <c r="R32" s="9">
+      <c r="Q32" s="14"/>
+      <c r="R32" s="8">
         <f t="shared" si="6"/>
         <v>0.47640788469806594</v>
       </c>
-      <c r="S32" s="9">
+      <c r="S32" s="8">
         <f t="shared" si="3"/>
         <v>0.42470140532714346</v>
       </c>
-      <c r="T32" s="9">
+      <c r="T32" s="8">
         <f t="shared" si="4"/>
         <v>3.4239326053231833</v>
       </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="10"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="9"/>
     </row>
     <row r="33" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q33" s="16"/>
-      <c r="R33" s="9">
+      <c r="Q33" s="14"/>
+      <c r="R33" s="8">
         <f t="shared" si="6"/>
         <v>0.19330250107485725</v>
       </c>
-      <c r="S33" s="9">
+      <c r="S33" s="8">
         <f t="shared" si="3"/>
         <v>-1.8070258348999786</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T33" s="8">
         <f t="shared" si="4"/>
         <v>-0.44147464311756135</v>
       </c>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="10"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="9"/>
     </row>
     <row r="34" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q34" s="16"/>
-      <c r="R34" s="9">
+      <c r="Q34" s="14"/>
+      <c r="R34" s="8">
         <f t="shared" si="6"/>
         <v>0.51293251397314421</v>
       </c>
-      <c r="S34" s="9">
+      <c r="S34" s="8">
         <f t="shared" si="3"/>
         <v>-0.56858009185706004</v>
       </c>
-      <c r="T34" s="9">
+      <c r="T34" s="8">
         <f t="shared" si="4"/>
         <v>-3.0178548685170683</v>
       </c>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="10"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="9"/>
     </row>
     <row r="35" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q35" s="16"/>
-      <c r="R35" s="9">
+      <c r="Q35" s="14"/>
+      <c r="R35" s="8">
         <f t="shared" si="6"/>
         <v>0.66812268165087474</v>
       </c>
-      <c r="S35" s="9">
+      <c r="S35" s="8">
         <f t="shared" si="3"/>
         <v>-0.35359169838420546</v>
       </c>
-      <c r="T35" s="9">
+      <c r="T35" s="8">
         <f t="shared" si="4"/>
         <v>-2.4766627961959164</v>
       </c>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="10"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="9"/>
     </row>
     <row r="36" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q36" s="16"/>
-      <c r="R36" s="9">
+      <c r="Q36" s="14"/>
+      <c r="R36" s="8">
         <f t="shared" si="6"/>
         <v>0.68559486146137161</v>
       </c>
-      <c r="S36" s="9">
+      <c r="S36" s="8">
         <f t="shared" si="3"/>
         <v>0.7414987080223604</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T36" s="8">
         <f t="shared" si="4"/>
         <v>-1.3586936057162262</v>
       </c>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="10"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="9"/>
     </row>
     <row r="37" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q37" s="16"/>
-      <c r="R37" s="9">
+      <c r="Q37" s="14"/>
+      <c r="R37" s="8">
         <f t="shared" si="6"/>
         <v>0.9127331989978309</v>
       </c>
-      <c r="S37" s="9">
+      <c r="S37" s="8">
         <f t="shared" si="3"/>
         <v>0.28367709305769323</v>
       </c>
-      <c r="T37" s="9">
+      <c r="T37" s="8">
         <f t="shared" si="4"/>
         <v>-0.95883040377756079</v>
       </c>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="10"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="9"/>
     </row>
     <row r="38" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q38" s="16"/>
-      <c r="R38" s="9">
+      <c r="Q38" s="14"/>
+      <c r="R38" s="8">
         <f t="shared" si="6"/>
         <v>0.86553158697180166</v>
       </c>
-      <c r="S38" s="9">
+      <c r="S38" s="8">
         <f t="shared" si="3"/>
         <v>-6.4515181661889938E-3</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T38" s="8">
         <f t="shared" si="4"/>
         <v>1.6121509762950297</v>
       </c>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="10"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="9"/>
     </row>
     <row r="39" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q39" s="16"/>
-      <c r="R39" s="9">
+      <c r="Q39" s="14"/>
+      <c r="R39" s="8">
         <f t="shared" si="6"/>
         <v>0.25191063063342156</v>
       </c>
-      <c r="S39" s="9">
+      <c r="S39" s="8">
         <f t="shared" si="3"/>
         <v>-0.25809671607155077</v>
       </c>
-      <c r="T39" s="9">
+      <c r="T39" s="8">
         <f t="shared" si="4"/>
         <v>4.9210497732933369</v>
       </c>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="10"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="9"/>
     </row>
     <row r="40" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q40" s="16"/>
-      <c r="R40" s="9">
+      <c r="Q40" s="14"/>
+      <c r="R40" s="8">
         <f t="shared" si="6"/>
         <v>0.2748381982344803</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S40" s="8">
         <f t="shared" si="3"/>
         <v>-1.4415585452689912</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T40" s="8">
         <f t="shared" si="4"/>
         <v>-2.1320154048669782</v>
       </c>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="10"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="9"/>
     </row>
     <row r="41" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q41" s="16"/>
-      <c r="R41" s="9">
+      <c r="Q41" s="14"/>
+      <c r="R41" s="8">
         <f t="shared" si="6"/>
         <v>0.57289657704824393</v>
       </c>
-      <c r="S41" s="9">
+      <c r="S41" s="8">
         <f t="shared" si="3"/>
         <v>-0.99893558552150385</v>
       </c>
-      <c r="T41" s="9">
+      <c r="T41" s="8">
         <f t="shared" si="4"/>
         <v>1.0227661347525661</v>
       </c>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="10"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="9"/>
     </row>
     <row r="42" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q42" s="16"/>
-      <c r="R42" s="9">
+      <c r="Q42" s="14"/>
+      <c r="R42" s="8">
         <f t="shared" si="6"/>
         <v>0.44765550162717105</v>
       </c>
-      <c r="S42" s="9">
+      <c r="S42" s="8">
         <f t="shared" si="3"/>
         <v>0.53637614671455813</v>
       </c>
-      <c r="T42" s="9">
+      <c r="T42" s="8">
         <f t="shared" si="4"/>
         <v>-3.4464284815395501</v>
       </c>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="10"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="9"/>
     </row>
     <row r="43" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q43" s="16"/>
-      <c r="R43" s="9">
+      <c r="Q43" s="14"/>
+      <c r="R43" s="8">
         <f t="shared" si="6"/>
         <v>0.81952152115322363</v>
       </c>
-      <c r="S43" s="9">
+      <c r="S43" s="8">
         <f t="shared" si="3"/>
         <v>-0.35862407849073491</v>
       </c>
-      <c r="T43" s="9">
+      <c r="T43" s="8">
         <f t="shared" si="4"/>
         <v>-1.5572803503938546</v>
       </c>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="10"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="9"/>
     </row>
     <row r="44" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q44" s="16"/>
-      <c r="R44" s="9">
+      <c r="Q44" s="14"/>
+      <c r="R44" s="8">
         <f t="shared" si="6"/>
         <v>0.6537797749919072</v>
       </c>
-      <c r="S44" s="9">
+      <c r="S44" s="8">
         <f t="shared" si="3"/>
         <v>-0.92192432062691243</v>
       </c>
-      <c r="T44" s="9">
+      <c r="T44" s="8">
         <f t="shared" si="4"/>
         <v>1.4995942098979568E-2</v>
       </c>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="10"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="9"/>
     </row>
     <row r="45" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q45" s="16"/>
-      <c r="R45" s="9">
+      <c r="Q45" s="14"/>
+      <c r="R45" s="8">
         <f t="shared" si="6"/>
         <v>0.49913707489479364</v>
       </c>
-      <c r="S45" s="9">
+      <c r="S45" s="8">
         <f t="shared" si="3"/>
         <v>-1.175948987371586</v>
       </c>
-      <c r="T45" s="9">
+      <c r="T45" s="8">
         <f t="shared" si="4"/>
         <v>0.24907268753902789</v>
       </c>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="10"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="9"/>
     </row>
     <row r="46" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q46" s="16"/>
-      <c r="R46" s="9">
+      <c r="Q46" s="14"/>
+      <c r="R46" s="8">
         <f t="shared" si="6"/>
         <v>0.48878197363231735</v>
       </c>
-      <c r="S46" s="9">
+      <c r="S46" s="8">
         <f t="shared" si="3"/>
         <v>-0.72839362826326193</v>
       </c>
-      <c r="T46" s="9">
+      <c r="T46" s="8">
         <f t="shared" si="4"/>
         <v>2.8478205722995904</v>
       </c>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="10"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="9"/>
     </row>
     <row r="47" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q47" s="16"/>
-      <c r="R47" s="9">
+      <c r="Q47" s="14"/>
+      <c r="R47" s="8">
         <f t="shared" si="6"/>
         <v>0.3541656572201255</v>
       </c>
-      <c r="S47" s="9">
+      <c r="S47" s="8">
         <f t="shared" si="3"/>
         <v>-1.1431568423644169</v>
       </c>
-      <c r="T47" s="9">
+      <c r="T47" s="8">
         <f t="shared" si="4"/>
         <v>-2.6310760556924193</v>
       </c>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="10"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="9"/>
     </row>
     <row r="48" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q48" s="16"/>
-      <c r="R48" s="9">
+      <c r="Q48" s="14"/>
+      <c r="R48" s="8">
         <f t="shared" si="6"/>
         <v>0.60415354386163145</v>
       </c>
-      <c r="S48" s="9">
+      <c r="S48" s="8">
         <f t="shared" si="3"/>
         <v>0.61029322923771923</v>
       </c>
-      <c r="T48" s="9">
+      <c r="T48" s="8">
         <f t="shared" si="4"/>
         <v>-2.3913518768761119</v>
       </c>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="10"/>
-    </row>
-    <row r="49" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q49" s="16"/>
-      <c r="R49" s="9">
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="9"/>
+    </row>
+    <row r="49" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="Q49" s="14"/>
+      <c r="R49" s="8">
         <f t="shared" si="6"/>
         <v>0.85399607020120882</v>
       </c>
-      <c r="S49" s="9">
+      <c r="S49" s="8">
         <f t="shared" si="3"/>
         <v>0.45045534086050104</v>
       </c>
-      <c r="T49" s="9">
+      <c r="T49" s="8">
         <f t="shared" si="4"/>
         <v>1.0073362081101582</v>
       </c>
-      <c r="U49" s="9"/>
-      <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="9"/>
-      <c r="Y49" s="10"/>
-    </row>
-    <row r="50" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q50" s="16"/>
-      <c r="R50" s="9">
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="9"/>
+    </row>
+    <row r="50" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="Q50" s="14"/>
+      <c r="R50" s="8">
         <f t="shared" si="6"/>
         <v>0.1019489126157147</v>
       </c>
-      <c r="S50" s="9">
+      <c r="S50" s="8">
         <f t="shared" si="3"/>
         <v>-0.97417215175286209</v>
       </c>
-      <c r="T50" s="9">
+      <c r="T50" s="8">
         <f t="shared" si="4"/>
         <v>5.7059617620986334</v>
       </c>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="10"/>
-    </row>
-    <row r="51" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q51" s="16"/>
-      <c r="R51" s="9">
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="9"/>
+    </row>
+    <row r="51" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="Q51" s="14"/>
+      <c r="R51" s="8">
         <f t="shared" si="6"/>
         <v>0.32533586400429115</v>
       </c>
-      <c r="S51" s="9">
+      <c r="S51" s="8">
         <f t="shared" si="3"/>
         <v>0.1937430444817968</v>
       </c>
-      <c r="T51" s="9">
+      <c r="T51" s="8">
         <f t="shared" si="4"/>
         <v>4.4580626218814841</v>
       </c>
-      <c r="U51" s="9"/>
-      <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="9"/>
-      <c r="Y51" s="10"/>
-    </row>
-    <row r="52" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q52" s="16"/>
-      <c r="R52" s="9">
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="9"/>
+    </row>
+    <row r="52" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="Q52" s="14"/>
+      <c r="R52" s="8">
         <f t="shared" si="6"/>
         <v>0.22936623205578499</v>
       </c>
-      <c r="S52" s="9">
+      <c r="S52" s="8">
         <f t="shared" si="3"/>
         <v>1.7160625199996562</v>
       </c>
-      <c r="T52" s="9">
+      <c r="T52" s="8">
         <f>$X$3*SQRT(-2*LN(R52))*SIN(2*PI()*R53)</f>
         <v>0</v>
       </c>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="10"/>
-    </row>
-    <row r="53" spans="17:25" x14ac:dyDescent="0.25">
-      <c r="Q53" s="12"/>
-      <c r="R53" s="13"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="13"/>
-      <c r="Y53" s="14"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="9"/>
+    </row>
+    <row r="53" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="Q53" s="11"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="13"/>
+    </row>
+    <row r="64" spans="11:25" x14ac:dyDescent="0.25">
+      <c r="K64" s="22"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="24"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K65" s="25"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="20"/>
+      <c r="W65" s="26"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="20"/>
+      <c r="W66" s="26"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="8">
+        <v>8</v>
+      </c>
+      <c r="C67" s="8">
+        <v>10</v>
+      </c>
+      <c r="D67" s="8">
+        <v>5</v>
+      </c>
+      <c r="E67" s="8">
+        <v>8</v>
+      </c>
+      <c r="F67" s="8">
+        <v>9</v>
+      </c>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I67" s="8">
+        <f>CORREL(B67:F67,B68:F68)</f>
+        <v>0.80178372573727319</v>
+      </c>
+      <c r="J67" s="8"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M67" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="20"/>
+      <c r="W67" s="26"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" s="8">
+        <v>1</v>
+      </c>
+      <c r="C68" s="8">
+        <v>3</v>
+      </c>
+      <c r="D68" s="8">
+        <v>1</v>
+      </c>
+      <c r="E68" s="8">
+        <v>2</v>
+      </c>
+      <c r="F68" s="8">
+        <v>3</v>
+      </c>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="20">
+        <v>1</v>
+      </c>
+      <c r="M68" s="20">
+        <v>8</v>
+      </c>
+      <c r="N68" s="20">
+        <v>1</v>
+      </c>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="20"/>
+      <c r="W68" s="26"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="20">
+        <v>3</v>
+      </c>
+      <c r="M69" s="20">
+        <v>10</v>
+      </c>
+      <c r="N69" s="20">
+        <v>3</v>
+      </c>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="20"/>
+      <c r="W69" s="26"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="20">
+        <v>1</v>
+      </c>
+      <c r="M70" s="20">
+        <v>5</v>
+      </c>
+      <c r="N70" s="20">
+        <v>1</v>
+      </c>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="20"/>
+      <c r="W70" s="26"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="20">
+        <v>2</v>
+      </c>
+      <c r="M71" s="20">
+        <v>8</v>
+      </c>
+      <c r="N71" s="20">
+        <v>2</v>
+      </c>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+      <c r="W71" s="26"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="20">
+        <v>3</v>
+      </c>
+      <c r="M72" s="20">
+        <v>9</v>
+      </c>
+      <c r="N72" s="20">
+        <v>3</v>
+      </c>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="20"/>
+      <c r="W72" s="26"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="20">
+        <f>CORREL(L68:L72,M68:M72)</f>
+        <v>0.80178372573727319</v>
+      </c>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="20"/>
+      <c r="W73" s="26"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="20"/>
+      <c r="W74" s="26"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="20"/>
+      <c r="W75" s="26"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="20"/>
+      <c r="W76" s="26"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="20"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="20"/>
+      <c r="W77" s="26"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="20"/>
+      <c r="O78" s="20"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="20"/>
+      <c r="S78" s="20"/>
+      <c r="T78" s="20"/>
+      <c r="U78" s="20"/>
+      <c r="V78" s="20"/>
+      <c r="W78" s="26"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="20"/>
+      <c r="O79" s="20"/>
+      <c r="P79" s="20"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="20"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="20"/>
+      <c r="W79" s="26"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="20"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="20"/>
+      <c r="O80" s="20"/>
+      <c r="P80" s="20"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="20"/>
+      <c r="S80" s="20"/>
+      <c r="T80" s="20"/>
+      <c r="U80" s="20"/>
+      <c r="V80" s="20"/>
+      <c r="W80" s="26"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="20"/>
+      <c r="O81" s="20"/>
+      <c r="P81" s="20"/>
+      <c r="Q81" s="20"/>
+      <c r="R81" s="20"/>
+      <c r="S81" s="20"/>
+      <c r="T81" s="20"/>
+      <c r="U81" s="20"/>
+      <c r="V81" s="20"/>
+      <c r="W81" s="26"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="20"/>
+      <c r="O82" s="20"/>
+      <c r="P82" s="20"/>
+      <c r="Q82" s="20"/>
+      <c r="R82" s="20"/>
+      <c r="S82" s="20"/>
+      <c r="T82" s="20"/>
+      <c r="U82" s="20"/>
+      <c r="V82" s="20"/>
+      <c r="W82" s="26"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="20"/>
+      <c r="O83" s="20"/>
+      <c r="P83" s="20"/>
+      <c r="Q83" s="20"/>
+      <c r="R83" s="20"/>
+      <c r="S83" s="20"/>
+      <c r="T83" s="20"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="20"/>
+      <c r="W83" s="26"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="20"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="20"/>
+      <c r="O84" s="20"/>
+      <c r="P84" s="20"/>
+      <c r="Q84" s="20"/>
+      <c r="R84" s="20"/>
+      <c r="S84" s="20"/>
+      <c r="T84" s="20"/>
+      <c r="U84" s="20"/>
+      <c r="V84" s="20"/>
+      <c r="W84" s="26"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="20"/>
+      <c r="O85" s="20"/>
+      <c r="P85" s="20"/>
+      <c r="Q85" s="20"/>
+      <c r="R85" s="20"/>
+      <c r="S85" s="20"/>
+      <c r="T85" s="20"/>
+      <c r="U85" s="20"/>
+      <c r="V85" s="20"/>
+      <c r="W85" s="26"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="20"/>
+      <c r="O86" s="20"/>
+      <c r="P86" s="20"/>
+      <c r="Q86" s="20"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="20"/>
+      <c r="T86" s="20"/>
+      <c r="U86" s="20"/>
+      <c r="V86" s="20"/>
+      <c r="W86" s="26"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" s="11"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="20"/>
+      <c r="O87" s="20"/>
+      <c r="P87" s="20"/>
+      <c r="Q87" s="20"/>
+      <c r="R87" s="20"/>
+      <c r="S87" s="20"/>
+      <c r="T87" s="20"/>
+      <c r="U87" s="20"/>
+      <c r="V87" s="20"/>
+      <c r="W87" s="26"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K88" s="25"/>
+      <c r="L88" s="20"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="20"/>
+      <c r="O88" s="20"/>
+      <c r="P88" s="20"/>
+      <c r="Q88" s="20"/>
+      <c r="R88" s="20"/>
+      <c r="S88" s="20"/>
+      <c r="T88" s="20"/>
+      <c r="U88" s="20"/>
+      <c r="V88" s="20"/>
+      <c r="W88" s="26"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K89" s="25"/>
+      <c r="L89" s="20"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="20"/>
+      <c r="O89" s="20"/>
+      <c r="P89" s="20"/>
+      <c r="Q89" s="20"/>
+      <c r="R89" s="20"/>
+      <c r="S89" s="20"/>
+      <c r="T89" s="20"/>
+      <c r="U89" s="20"/>
+      <c r="V89" s="20"/>
+      <c r="W89" s="26"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K90" s="25"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="20"/>
+      <c r="O90" s="20"/>
+      <c r="P90" s="20"/>
+      <c r="Q90" s="20"/>
+      <c r="R90" s="20"/>
+      <c r="S90" s="20"/>
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+      <c r="V90" s="20"/>
+      <c r="W90" s="26"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K91" s="25"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="20"/>
+      <c r="O91" s="20"/>
+      <c r="P91" s="20"/>
+      <c r="Q91" s="20"/>
+      <c r="R91" s="20"/>
+      <c r="S91" s="20"/>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="20"/>
+      <c r="W91" s="26"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K92" s="25"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="20"/>
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="20"/>
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
+      <c r="U92" s="20"/>
+      <c r="V92" s="20"/>
+      <c r="W92" s="26"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K93" s="25"/>
+      <c r="L93" s="20"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="20"/>
+      <c r="O93" s="20"/>
+      <c r="P93" s="20"/>
+      <c r="Q93" s="20"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="20"/>
+      <c r="T93" s="20"/>
+      <c r="U93" s="20"/>
+      <c r="V93" s="20"/>
+      <c r="W93" s="26"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K94" s="25"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="20"/>
+      <c r="O94" s="20"/>
+      <c r="P94" s="20"/>
+      <c r="Q94" s="20"/>
+      <c r="R94" s="20"/>
+      <c r="S94" s="20"/>
+      <c r="T94" s="20"/>
+      <c r="U94" s="20"/>
+      <c r="V94" s="20"/>
+      <c r="W94" s="26"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K95" s="25"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="20"/>
+      <c r="O95" s="20"/>
+      <c r="P95" s="20"/>
+      <c r="Q95" s="20"/>
+      <c r="R95" s="20"/>
+      <c r="S95" s="20"/>
+      <c r="T95" s="20"/>
+      <c r="U95" s="20"/>
+      <c r="V95" s="20"/>
+      <c r="W95" s="26"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K96" s="25"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="20"/>
+      <c r="O96" s="20"/>
+      <c r="P96" s="20"/>
+      <c r="Q96" s="20"/>
+      <c r="R96" s="20"/>
+      <c r="S96" s="20"/>
+      <c r="T96" s="20"/>
+      <c r="U96" s="20"/>
+      <c r="V96" s="20"/>
+      <c r="W96" s="26"/>
+    </row>
+    <row r="97" spans="11:23" x14ac:dyDescent="0.25">
+      <c r="K97" s="27"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="28"/>
+      <c r="N97" s="28"/>
+      <c r="O97" s="28"/>
+      <c r="P97" s="28"/>
+      <c r="Q97" s="28"/>
+      <c r="R97" s="28"/>
+      <c r="S97" s="28"/>
+      <c r="T97" s="28"/>
+      <c r="U97" s="28"/>
+      <c r="V97" s="28"/>
+      <c r="W97" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="H1:P1"/>
     <mergeCell ref="Q1:Y1"/>
+    <mergeCell ref="A66:J66"/>
   </mergeCells>
   <conditionalFormatting sqref="J3:J17">
     <cfRule type="colorScale" priority="2">
